--- a/best_results/individual_feature_analysis/r2/best_r2_WV25_test_range_2.xlsx
+++ b/best_results/individual_feature_analysis/r2/best_r2_WV25_test_range_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\legra\WaterRiskML\best_results\individual_feature_analysis\r2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D004492B-3F6E-4F0C-A5BF-9FEB28718B71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5317E558-44C6-47C1-8B02-11D5783D1AA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -499,7 +499,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -507,37 +507,37 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>-2.2999999999999998</v>
+        <v>-0.2</v>
       </c>
       <c r="D2">
-        <v>-1.37</v>
+        <v>0.34</v>
       </c>
       <c r="E2">
-        <v>-1.92</v>
+        <v>0.21</v>
       </c>
       <c r="F2">
-        <v>-1.4</v>
+        <v>0.13</v>
       </c>
       <c r="G2">
-        <v>-2.2400000000000002</v>
+        <v>-0.23</v>
       </c>
       <c r="H2">
-        <v>-2.17</v>
+        <v>-0.24</v>
       </c>
       <c r="I2">
-        <v>-1.85</v>
+        <v>0.05</v>
       </c>
       <c r="J2">
-        <v>-1.84</v>
+        <v>0.2</v>
       </c>
       <c r="K2">
-        <v>-1.82</v>
+        <v>-0.02</v>
       </c>
       <c r="L2">
-        <v>-1.61</v>
+        <v>0.24</v>
       </c>
       <c r="M2">
-        <v>-1.36</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -546,37 +546,37 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>-2.2999999999999998</v>
+        <v>-0.13</v>
       </c>
       <c r="D3">
-        <v>-1.46</v>
+        <v>0.3</v>
       </c>
       <c r="E3">
-        <v>-1.85</v>
+        <v>0.22</v>
       </c>
       <c r="F3">
-        <v>-1.44</v>
+        <v>0.08</v>
       </c>
       <c r="G3">
-        <v>-2.2400000000000002</v>
+        <v>-0.25</v>
       </c>
       <c r="H3">
-        <v>-2.17</v>
+        <v>-0.26</v>
       </c>
       <c r="I3">
-        <v>-1.84</v>
+        <v>0.04</v>
       </c>
       <c r="J3">
-        <v>-1.88</v>
+        <v>0.17</v>
       </c>
       <c r="K3">
-        <v>-1.76</v>
+        <v>-0.04</v>
       </c>
       <c r="L3">
-        <v>-1.56</v>
+        <v>0.23</v>
       </c>
       <c r="M3">
-        <v>-1.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -585,37 +585,37 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>-2.31</v>
+        <v>-0.13</v>
       </c>
       <c r="D4">
-        <v>-1.47</v>
+        <v>0.3</v>
       </c>
       <c r="E4">
-        <v>-1.83</v>
+        <v>0.22</v>
       </c>
       <c r="F4">
-        <v>-1.44</v>
+        <v>0.08</v>
       </c>
       <c r="G4">
-        <v>-2.2400000000000002</v>
+        <v>-0.25</v>
       </c>
       <c r="H4">
-        <v>-2.17</v>
+        <v>-0.27</v>
       </c>
       <c r="I4">
-        <v>-1.84</v>
+        <v>0.04</v>
       </c>
       <c r="J4">
-        <v>-1.9</v>
+        <v>0.15</v>
       </c>
       <c r="K4">
-        <v>-1.74</v>
+        <v>-0.04</v>
       </c>
       <c r="L4">
-        <v>-1.55</v>
+        <v>0.23</v>
       </c>
       <c r="M4">
-        <v>-1.42</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -624,40 +624,40 @@
         <v>15</v>
       </c>
       <c r="C5">
-        <v>-2.3199999999999998</v>
+        <v>-0.13</v>
       </c>
       <c r="D5">
-        <v>-1.47</v>
+        <v>0.31</v>
       </c>
       <c r="E5">
-        <v>-1.83</v>
+        <v>0.22</v>
       </c>
       <c r="F5">
-        <v>-1.45</v>
+        <v>0.08</v>
       </c>
       <c r="G5">
-        <v>-2.23</v>
+        <v>-0.26</v>
       </c>
       <c r="H5">
-        <v>-2.16</v>
+        <v>-0.27</v>
       </c>
       <c r="I5">
-        <v>-1.86</v>
+        <v>0.04</v>
       </c>
       <c r="J5">
-        <v>-1.92</v>
+        <v>0.15</v>
       </c>
       <c r="K5">
-        <v>-1.73</v>
+        <v>-0.04</v>
       </c>
       <c r="L5">
-        <v>-1.55</v>
+        <v>0.24</v>
       </c>
       <c r="M5">
-        <v>-1.43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3" t="s">
         <v>18</v>
       </c>
@@ -665,37 +665,37 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>-2.2999999999999998</v>
+        <v>-0.24</v>
       </c>
       <c r="D6">
-        <v>-1.97</v>
+        <v>0.09</v>
       </c>
       <c r="E6">
-        <v>-2.88</v>
+        <v>-0.39</v>
       </c>
       <c r="F6">
-        <v>-2.2000000000000002</v>
+        <v>0.04</v>
       </c>
       <c r="G6">
-        <v>-2.2400000000000002</v>
+        <v>-0.22</v>
       </c>
       <c r="H6">
-        <v>-2.1</v>
+        <v>-0.23</v>
       </c>
       <c r="I6">
-        <v>-1.84</v>
+        <v>0.03</v>
       </c>
       <c r="J6">
-        <v>-1.95</v>
+        <v>-0.05</v>
       </c>
       <c r="K6">
-        <v>-1.83</v>
+        <v>-0.04</v>
       </c>
       <c r="L6">
-        <v>-2.4</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="M6">
-        <v>-1.29</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -704,37 +704,37 @@
         <v>13</v>
       </c>
       <c r="C7">
-        <v>-2.2999999999999998</v>
+        <v>-0.23</v>
       </c>
       <c r="D7">
-        <v>-1.91</v>
+        <v>-0.09</v>
       </c>
       <c r="E7">
-        <v>-2.86</v>
+        <v>-0.62</v>
       </c>
       <c r="F7">
-        <v>-2.29</v>
+        <v>-0.17</v>
       </c>
       <c r="G7">
-        <v>-2.2599999999999998</v>
+        <v>-0.22</v>
       </c>
       <c r="H7">
-        <v>-2.1</v>
+        <v>-0.23</v>
       </c>
       <c r="I7">
-        <v>-1.84</v>
+        <v>0.03</v>
       </c>
       <c r="J7">
-        <v>-2.0299999999999998</v>
+        <v>-0.05</v>
       </c>
       <c r="K7">
-        <v>-1.8</v>
+        <v>0.01</v>
       </c>
       <c r="L7">
-        <v>-2.64</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="M7">
-        <v>-1.65</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -743,37 +743,37 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>-2.29</v>
+        <v>-0.24</v>
       </c>
       <c r="D8">
-        <v>-1.9</v>
+        <v>-0.11</v>
       </c>
       <c r="E8">
-        <v>-2.9</v>
+        <v>-0.73</v>
       </c>
       <c r="F8">
-        <v>-2.27</v>
+        <v>-0.17</v>
       </c>
       <c r="G8">
-        <v>-2.25</v>
+        <v>-0.22</v>
       </c>
       <c r="H8">
-        <v>-2.1</v>
+        <v>-0.23</v>
       </c>
       <c r="I8">
-        <v>-1.84</v>
+        <v>0.03</v>
       </c>
       <c r="J8">
-        <v>-2.0299999999999998</v>
+        <v>-0.05</v>
       </c>
       <c r="K8">
-        <v>-1.8</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>-2.4</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="M8">
-        <v>-1.77</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -782,40 +782,40 @@
         <v>15</v>
       </c>
       <c r="C9">
-        <v>-2.29</v>
+        <v>-0.25</v>
       </c>
       <c r="D9">
-        <v>-1.87</v>
+        <v>-0.13</v>
       </c>
       <c r="E9">
-        <v>-7.46</v>
+        <v>-0.39</v>
       </c>
       <c r="F9">
-        <v>-2.2000000000000002</v>
+        <v>-0.17</v>
       </c>
       <c r="G9">
-        <v>-2.2400000000000002</v>
+        <v>-0.23</v>
       </c>
       <c r="H9">
-        <v>-2.09</v>
+        <v>-0.23</v>
       </c>
       <c r="I9">
-        <v>-1.84</v>
+        <v>0.03</v>
       </c>
       <c r="J9">
-        <v>-2.0299999999999998</v>
+        <v>-0.05</v>
       </c>
       <c r="K9">
-        <v>-1.8</v>
+        <v>0.01</v>
       </c>
       <c r="L9">
-        <v>-2.4</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="M9">
-        <v>-1.93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
@@ -823,37 +823,37 @@
         <v>12</v>
       </c>
       <c r="C10">
-        <v>-2.2999999999999998</v>
+        <v>-0.2</v>
       </c>
       <c r="D10">
-        <v>-1.37</v>
+        <v>0.34</v>
       </c>
       <c r="E10">
-        <v>-1.92</v>
+        <v>0.21</v>
       </c>
       <c r="F10">
-        <v>-1.4</v>
+        <v>0.13</v>
       </c>
       <c r="G10">
-        <v>-2.2400000000000002</v>
+        <v>-0.23</v>
       </c>
       <c r="H10">
-        <v>-2.17</v>
+        <v>-0.24</v>
       </c>
       <c r="I10">
-        <v>-1.85</v>
+        <v>0.05</v>
       </c>
       <c r="J10">
-        <v>-1.84</v>
+        <v>0.2</v>
       </c>
       <c r="K10">
-        <v>-1.82</v>
+        <v>-0.02</v>
       </c>
       <c r="L10">
-        <v>-1.61</v>
+        <v>0.24</v>
       </c>
       <c r="M10">
-        <v>-1.36</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -862,37 +862,37 @@
         <v>13</v>
       </c>
       <c r="C11">
-        <v>-2.2999999999999998</v>
+        <v>-0.13</v>
       </c>
       <c r="D11">
-        <v>-1.46</v>
+        <v>0.3</v>
       </c>
       <c r="E11">
-        <v>-1.85</v>
+        <v>0.22</v>
       </c>
       <c r="F11">
-        <v>-1.44</v>
+        <v>0.08</v>
       </c>
       <c r="G11">
-        <v>-2.2400000000000002</v>
+        <v>-0.25</v>
       </c>
       <c r="H11">
-        <v>-2.17</v>
+        <v>-0.26</v>
       </c>
       <c r="I11">
-        <v>-1.84</v>
+        <v>0.04</v>
       </c>
       <c r="J11">
-        <v>-1.88</v>
+        <v>0.17</v>
       </c>
       <c r="K11">
-        <v>-1.76</v>
+        <v>-0.04</v>
       </c>
       <c r="L11">
-        <v>-1.56</v>
+        <v>0.23</v>
       </c>
       <c r="M11">
-        <v>-1.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -901,37 +901,37 @@
         <v>14</v>
       </c>
       <c r="C12">
-        <v>-2.31</v>
+        <v>-0.13</v>
       </c>
       <c r="D12">
-        <v>-1.47</v>
+        <v>0.3</v>
       </c>
       <c r="E12">
-        <v>-1.83</v>
+        <v>0.22</v>
       </c>
       <c r="F12">
-        <v>-1.44</v>
+        <v>0.08</v>
       </c>
       <c r="G12">
-        <v>-2.2400000000000002</v>
+        <v>-0.25</v>
       </c>
       <c r="H12">
-        <v>-2.17</v>
+        <v>-0.27</v>
       </c>
       <c r="I12">
-        <v>-1.84</v>
+        <v>0.04</v>
       </c>
       <c r="J12">
-        <v>-1.9</v>
+        <v>0.15</v>
       </c>
       <c r="K12">
-        <v>-1.74</v>
+        <v>-0.04</v>
       </c>
       <c r="L12">
-        <v>-1.55</v>
+        <v>0.23</v>
       </c>
       <c r="M12">
-        <v>-1.42</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -940,40 +940,40 @@
         <v>15</v>
       </c>
       <c r="C13">
-        <v>-2.3199999999999998</v>
+        <v>-0.13</v>
       </c>
       <c r="D13">
-        <v>-1.47</v>
+        <v>0.31</v>
       </c>
       <c r="E13">
-        <v>-1.83</v>
+        <v>0.22</v>
       </c>
       <c r="F13">
-        <v>-1.45</v>
+        <v>0.08</v>
       </c>
       <c r="G13">
-        <v>-2.23</v>
+        <v>-0.26</v>
       </c>
       <c r="H13">
-        <v>-2.16</v>
+        <v>-0.27</v>
       </c>
       <c r="I13">
-        <v>-1.86</v>
+        <v>0.04</v>
       </c>
       <c r="J13">
-        <v>-1.92</v>
+        <v>0.15</v>
       </c>
       <c r="K13">
-        <v>-1.73</v>
+        <v>-0.04</v>
       </c>
       <c r="L13">
-        <v>-1.55</v>
+        <v>0.24</v>
       </c>
       <c r="M13">
-        <v>-1.43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="3" t="s">
         <v>20</v>
       </c>
@@ -981,37 +981,37 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>-2.2999999999999998</v>
+        <v>-0.24</v>
       </c>
       <c r="D14">
-        <v>-1.97</v>
+        <v>0.09</v>
       </c>
       <c r="E14">
-        <v>-2.88</v>
+        <v>-0.39</v>
       </c>
       <c r="F14">
-        <v>-2.2000000000000002</v>
+        <v>0.04</v>
       </c>
       <c r="G14">
-        <v>-2.2400000000000002</v>
+        <v>-0.22</v>
       </c>
       <c r="H14">
-        <v>-2.1</v>
+        <v>-0.23</v>
       </c>
       <c r="I14">
-        <v>-1.84</v>
+        <v>0.03</v>
       </c>
       <c r="J14">
-        <v>-1.95</v>
+        <v>-0.05</v>
       </c>
       <c r="K14">
-        <v>-1.83</v>
+        <v>-0.04</v>
       </c>
       <c r="L14">
-        <v>-2.4</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="M14">
-        <v>-1.29</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -1020,37 +1020,37 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>-2.2999999999999998</v>
+        <v>-0.23</v>
       </c>
       <c r="D15">
-        <v>-1.91</v>
+        <v>-0.09</v>
       </c>
       <c r="E15">
-        <v>-2.86</v>
+        <v>-0.62</v>
       </c>
       <c r="F15">
-        <v>-2.29</v>
+        <v>-0.17</v>
       </c>
       <c r="G15">
-        <v>-2.2599999999999998</v>
+        <v>-0.22</v>
       </c>
       <c r="H15">
-        <v>-2.1</v>
+        <v>-0.23</v>
       </c>
       <c r="I15">
-        <v>-1.84</v>
+        <v>0.03</v>
       </c>
       <c r="J15">
-        <v>-2.0299999999999998</v>
+        <v>-0.05</v>
       </c>
       <c r="K15">
-        <v>-1.8</v>
+        <v>0.01</v>
       </c>
       <c r="L15">
-        <v>-2.64</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="M15">
-        <v>-1.65</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -1059,37 +1059,37 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>-2.29</v>
+        <v>-0.24</v>
       </c>
       <c r="D16">
-        <v>-1.9</v>
+        <v>-0.11</v>
       </c>
       <c r="E16">
-        <v>-2.9</v>
+        <v>-0.73</v>
       </c>
       <c r="F16">
-        <v>-2.27</v>
+        <v>-0.17</v>
       </c>
       <c r="G16">
-        <v>-2.25</v>
+        <v>-0.22</v>
       </c>
       <c r="H16">
-        <v>-2.1</v>
+        <v>-0.23</v>
       </c>
       <c r="I16">
-        <v>-1.84</v>
+        <v>0.03</v>
       </c>
       <c r="J16">
-        <v>-2.0299999999999998</v>
+        <v>-0.05</v>
       </c>
       <c r="K16">
-        <v>-1.8</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>-2.4</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="M16">
-        <v>-1.77</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -1098,37 +1098,37 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>-2.29</v>
+        <v>-0.25</v>
       </c>
       <c r="D17">
-        <v>-1.87</v>
+        <v>-0.13</v>
       </c>
       <c r="E17">
-        <v>-7.46</v>
+        <v>-0.39</v>
       </c>
       <c r="F17">
-        <v>-2.2000000000000002</v>
+        <v>-0.17</v>
       </c>
       <c r="G17">
-        <v>-2.2400000000000002</v>
+        <v>-0.23</v>
       </c>
       <c r="H17">
-        <v>-2.09</v>
+        <v>-0.23</v>
       </c>
       <c r="I17">
-        <v>-1.84</v>
+        <v>0.03</v>
       </c>
       <c r="J17">
-        <v>-2.0299999999999998</v>
+        <v>-0.05</v>
       </c>
       <c r="K17">
-        <v>-1.8</v>
+        <v>0.01</v>
       </c>
       <c r="L17">
-        <v>-2.4</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="M17">
-        <v>-1.93</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -1136,37 +1136,37 @@
         <v>16</v>
       </c>
       <c r="C18" s="2">
-        <v>-2.29</v>
+        <v>-0.13</v>
       </c>
       <c r="D18" s="2">
-        <v>-1.37</v>
+        <v>0.34</v>
       </c>
       <c r="E18" s="2">
-        <v>-1.83</v>
+        <v>0.22</v>
       </c>
       <c r="F18" s="2">
-        <v>-1.4</v>
+        <v>0.13</v>
       </c>
       <c r="G18" s="2">
-        <v>-2.23</v>
+        <v>-0.22</v>
       </c>
       <c r="H18" s="2">
-        <v>-2.09</v>
+        <v>-0.23</v>
       </c>
       <c r="I18" s="2">
-        <v>-1.84</v>
+        <v>0.05</v>
       </c>
       <c r="J18" s="2">
-        <v>-1.84</v>
+        <v>0.2</v>
       </c>
       <c r="K18" s="2">
-        <v>-1.73</v>
+        <v>0.01</v>
       </c>
       <c r="L18" s="2">
-        <v>-1.55</v>
+        <v>0.24</v>
       </c>
       <c r="M18" s="2">
-        <v>-1.29</v>
+        <v>0.37</v>
       </c>
     </row>
   </sheetData>

--- a/best_results/individual_feature_analysis/r2/best_r2_WV25_test_range_2.xlsx
+++ b/best_results/individual_feature_analysis/r2/best_r2_WV25_test_range_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\legra\WaterRiskML\best_results\individual_feature_analysis\r2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5317E558-44C6-47C1-8B02-11D5783D1AA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1737660E-A76C-4E27-B8EE-8C596DB3923D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -104,12 +104,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -139,7 +145,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -148,6 +154,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,7 +460,7 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -825,13 +832,13 @@
       <c r="C10">
         <v>-0.2</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="4">
         <v>0.34</v>
       </c>
       <c r="E10">
         <v>0.21</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="4">
         <v>0.13</v>
       </c>
       <c r="G10">
@@ -840,16 +847,16 @@
       <c r="H10">
         <v>-0.24</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="4">
         <v>0.05</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="4">
         <v>0.2</v>
       </c>
       <c r="K10">
         <v>-0.02</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="4">
         <v>0.24</v>
       </c>
       <c r="M10">
@@ -906,7 +913,7 @@
       <c r="D12">
         <v>0.3</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="4">
         <v>0.22</v>
       </c>
       <c r="F12">
@@ -939,7 +946,7 @@
       <c r="B13" t="s">
         <v>15</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="4">
         <v>-0.13</v>
       </c>
       <c r="D13">
@@ -992,10 +999,10 @@
       <c r="F14">
         <v>0.04</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="4">
         <v>-0.22</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="4">
         <v>-0.23</v>
       </c>
       <c r="I14">
@@ -1010,7 +1017,7 @@
       <c r="L14">
         <v>-0.28000000000000003</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="4">
         <v>0.37</v>
       </c>
     </row>
@@ -1043,7 +1050,7 @@
       <c r="J15">
         <v>-0.05</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="4">
         <v>0.01</v>
       </c>
       <c r="L15">
